--- a/Beneficient/test_Smoke/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Smoke/Executiondir/Execution.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -436,7 +436,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,19 @@
         </is>
       </c>
     </row>
-    <row r="7"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>test_DiagnosticFlagStatus</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/test_Smoke/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Smoke/Executiondir/Execution.xlsx
@@ -1,33 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\test_Smoke\Executiondir\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+  <si>
+    <t>test_AllModulesVerify</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksFunds</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksInvestments</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksLiquidTrusts</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksTransactions</t>
+  </si>
+  <si>
+    <t>test_DiagnosticFlagStatus</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +82,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,110 +362,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="34.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.36328125" customWidth="1" min="2" max="2"/>
-    <col width="14.54296875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>test_AllModulesVerify</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksFunds</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksInvestments</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksLiquidTrusts</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksTransactions</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>test_DiagnosticFlagStatus</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="8"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/test_Smoke/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Smoke/Executiondir/Execution.xlsx
@@ -1,69 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\test_Smoke\Executiondir\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
-  <si>
-    <t>test_AllModulesVerify</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksFunds</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksInvestments</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksLiquidTrusts</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksTransactions</t>
-  </si>
-  <si>
-    <t>test_DiagnosticFlagStatus</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -82,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -362,77 +385,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col width="34.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.36328125" customWidth="1" min="2" max="2"/>
+    <col width="14.54296875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test_AllModulesVerify</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksFunds</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksInvestments</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksLiquidTrusts</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksTransactions</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>test_DiagnosticFlagStatus</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/test_Smoke/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Smoke/Executiondir/Execution.xlsx
@@ -1,33 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\test_Smoke\Executiondir\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+  <si>
+    <t>test_AllModulesVerify</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksFunds</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksInvestments</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksLiquidTrusts</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksTransactions</t>
+  </si>
+  <si>
+    <t>test_DiagnosticFlagStatus</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +79,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,110 +359,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="34.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.36328125" customWidth="1" min="2" max="2"/>
-    <col width="14.54296875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>test_AllModulesVerify</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksFunds</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksInvestments</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksLiquidTrusts</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksTransactions</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>test_DiagnosticFlagStatus</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="8"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/test_Smoke/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Smoke/Executiondir/Execution.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -484,7 +484,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/Beneficient/test_Smoke/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Smoke/Executiondir/Execution.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\test_Smoke\Executiondir\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDD17D-C3D3-404D-9D5F-1C1E3201B97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>test_AllModulesVerify</t>
   </si>
@@ -43,12 +44,15 @@
   </si>
   <si>
     <t>test_DiagnosticFlagStatus</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,11 +363,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -379,7 +383,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -427,7 +431,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Beneficient/test_Smoke/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Smoke/Executiondir/Execution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\test_Smoke\Executiondir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDD17D-C3D3-404D-9D5F-1C1E3201B97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8826D5-3381-482B-8432-CE025E61D7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>test_AllModulesVerify</t>
   </si>
   <si>
     <t>test_VerifyingAllLinksFunds</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>test_VerifyingAllLinksInvestments</t>
@@ -367,7 +364,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E7" activeCellId="1" sqref="B1:B6 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -383,7 +380,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -391,47 +388,47 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Beneficient/test_Smoke/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Smoke/Executiondir/Execution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\test_Smoke\Executiondir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8826D5-3381-482B-8432-CE025E61D7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229638E9-09AB-4FAB-83E8-42CAE286B69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7330" yWindow="2460" windowWidth="11750" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <t>test_AllModulesVerify</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>test_VerifyingAllLinksFunds</t>
   </si>
   <si>
@@ -41,9 +44,6 @@
   </si>
   <si>
     <t>test_DiagnosticFlagStatus</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" activeCellId="1" sqref="B1:B6 E7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -380,55 +380,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Beneficient/test_Smoke/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Smoke/Executiondir/Execution.xlsx
@@ -1,67 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\test_Smoke\Executiondir\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229638E9-09AB-4FAB-83E8-42CAE286B69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7330" yWindow="2460" windowWidth="11750" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7330" yWindow="2460" windowWidth="11750" windowHeight="7360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
-  <si>
-    <t>test_AllModulesVerify</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksFunds</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksInvestments</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksLiquidTrusts</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksTransactions</t>
-  </si>
-  <si>
-    <t>test_DiagnosticFlagStatus</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -360,77 +385,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col width="34.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.36328125" customWidth="1" min="2" max="2"/>
+    <col width="14.54296875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test_AllModulesVerify</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksFunds</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksInvestments</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksLiquidTrusts</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksTransactions</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>test_DiagnosticFlagStatus</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/test_Smoke/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Smoke/Executiondir/Execution.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7330" yWindow="2460" windowWidth="11750" windowHeight="7360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -436,7 +436,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>

--- a/Beneficient/test_Smoke/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Smoke/Executiondir/Execution.xlsx
@@ -1,33 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\test_Smoke\Executiondir\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19399A6A-25F3-427B-BC0C-69C9211207E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+  <si>
+    <t>test_AllModulesVerify</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksFunds</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksInvestments</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksLiquidTrusts</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
+  </si>
+  <si>
+    <t>test_VerifyingAllLinksTransactions</t>
+  </si>
+  <si>
+    <t>test_DiagnosticFlagStatus</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +80,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,110 +360,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="34.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="11.36328125" customWidth="1" min="2" max="2"/>
-    <col width="14.54296875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>test_AllModulesVerify</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksFunds</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksInvestments</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksLiquidTrusts</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>test_VerifyingAllLinksTransactions</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>test_DiagnosticFlagStatus</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="8"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/test_Smoke/Executiondir/Execution.xlsx
+++ b/Beneficient/test_Smoke/Executiondir/Execution.xlsx
@@ -1,67 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\test_Smoke\Executiondir\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19399A6A-25F3-427B-BC0C-69C9211207E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
-  <si>
-    <t>test_AllModulesVerify</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksFunds</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksInvestments</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksLiquidTrusts</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
-  </si>
-  <si>
-    <t>test_VerifyingAllLinksTransactions</t>
-  </si>
-  <si>
-    <t>test_DiagnosticFlagStatus</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -360,77 +385,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col width="34.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.36328125" customWidth="1" min="2" max="2"/>
+    <col width="14.54296875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test_AllModulesVerify</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksFunds</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksInvestments</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksLiquidTrusts</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksQuarterlyNAVClose</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test_VerifyingAllLinksTransactions</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>test_DiagnosticFlagStatus</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
